--- a/doc/CS673_ProgressReport_team1.xlsx
+++ b/doc/CS673_ProgressReport_team1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="229">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -118,6 +118,51 @@
   </si>
   <si>
     <t xml:space="preserve">- For next iteration, we will set up the story and distribute it to each memebers </t>
+  </si>
+  <si>
+    <t>09/15-09/26</t>
+  </si>
+  <si>
+    <t>- Begin setting up the database
+- Begin creating pipeline
+- Begin creating authentication
+- Completed SDD
+- Completed STD</t>
+  </si>
+  <si>
+    <t>Deciding how to proceed with Authentication</t>
+  </si>
+  <si>
+    <t>- Team was sub-broken into front end team and back end team, each team then decided on certain approaches that team members planned to familiarize themselves with</t>
+  </si>
+  <si>
+    <t>- Have regular meetings to check in on code progress for all team members
+- Have multiple team members check to ensure they can access the different tools being used to set the project up</t>
+  </si>
+  <si>
+    <t>09/27-10/10</t>
+  </si>
+  <si>
+    <t>- Created endpoints for front end to access database
+- Created functionality code in backend that enables our core features
+- Decided on authentication and began working that into the program
+- Decided on front end framework (MUI)
+- Began creating components for UI
+- Created pipeline
+- Created container
+- Decided on using Hiroku as our hosting tool
+- Connected Hiroku to backend
+- Created and tested dashboard, set up, navigation, add expense, and add income components</t>
+  </si>
+  <si>
+    <t>- With team members beginning to access code from other areas of the program, the team had to communicate across front end and back end teams to ensure that all of the needed endpoints were accessible. 
+- Additionally, due to the combination of front end and back end progress, the team had to work together to create new endpoints for certain requirements and had to communicate more with different members to ensure the front end could communicate properly with the backend. 
+- Since we need to have the application hosted for the final iteration, the team needed to find a hosting tool and ensure that it would integrate with our setup without having to invest too much time to ensure other application requirements were met</t>
+  </si>
+  <si>
+    <t>- Integrate the Hiroku hosting with the front end for the final iteration
+- Continue testing components to ensure database is updated for particular users
+- Finalize the notification feature that will monitor expense categories and alert users when a category has exceeded a determined limit</t>
   </si>
   <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
@@ -296,6 +341,67 @@
     <t>Na</t>
   </si>
   <si>
+    <t>9/19 - 09/25</t>
+  </si>
+  <si>
+    <t>0 - learn Database; Learn cucumber testing
+1 - Work with the team to plan high-level architectural design of project
+2 - Created design patterns to be implemented
+5 - communication with team and meetings; up the timeline for our requirements
+7 - Updated documentation, created and presented Iteration 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design pattern </t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Start implementation of budget notification system</t>
+  </si>
+  <si>
+    <t>9/25- 10/02</t>
+  </si>
+  <si>
+    <t>0 - learn Database; Learn cucumber testing
+1 - Work with the team to plan high-level architectural design of project
+3- started working on budget notification system
+5 - communication with team and meetings; up the timeline for our requirements
+7 - Updated documentation</t>
+  </si>
+  <si>
+    <t>Budget notification system and testing</t>
+  </si>
+  <si>
+    <t>1. errors not letting compile</t>
+  </si>
+  <si>
+    <t>reviewed code with team and found imports missing</t>
+  </si>
+  <si>
+    <t>finsish budgeting notifications system and start on testing</t>
+  </si>
+  <si>
+    <t>10/03- 10/10</t>
+  </si>
+  <si>
+    <t>0 - learn Database; Learn cucumber testing
+1 - Work with the team to plan high-level architectural design of project
+3- working on budget notification system
+4- creating tests for budget notifcation
+5 - communication with team and meetings; up the timeline for our requirements
+7 - Updated documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on testing will merge with dev branch after </t>
+  </si>
+  <si>
+    <t>implementation completed, working on creating tests</t>
+  </si>
+  <si>
+    <t>finish testing. see if team wants to add budgeting option by category</t>
+  </si>
+  <si>
     <t>Sean Rawson</t>
   </si>
   <si>
@@ -388,6 +494,41 @@
     <t>1. Continue implementation of endpoints
 2. Move forward with authentication system development
 3. Discuss communication between front and back-end components with team</t>
+  </si>
+  <si>
+    <t>09/26 - 10/02</t>
+  </si>
+  <si>
+    <t>2 - Design user overview endpoint to support UI dashboard
+3 - Refine API endpoints and add additional ones as needed to support front end functionality
+4 - Write unit tests for main back end classes
+5 - Group meetings/discord communication</t>
+  </si>
+  <si>
+    <t>No issues</t>
+  </si>
+  <si>
+    <t>1. Help integrated authentication code with existing back end
+2. Continue writing unit tests</t>
+  </si>
+  <si>
+    <t>10/3 - 10/9</t>
+  </si>
+  <si>
+    <t>0 - Learn about JPA interaction with composite primary key tables
+2 - Design classes and database table for expense category budgets in preparation for iteration 3
+3 - Implement date range searches for expense, income, and user overview endpoints
+4 - Continue filling out unit tests for the back end
+5 - Assist in testing efforts for planned expense notification functionality, communicate with team about database updates</t>
+  </si>
+  <si>
+    <t>Updated SPPP risk management spreadsheet
+Personal progress report</t>
+  </si>
+  <si>
+    <t>1. Help integrate front end with back end
+2. Perform testing to ensure that authentication functionality integrates well with back end
+3. Add expense category budgeting options to back end</t>
   </si>
   <si>
     <r>
@@ -486,6 +627,55 @@
 5. Write up documentation how to run the containers </t>
   </si>
   <si>
+    <t>09/26-10/2</t>
+  </si>
+  <si>
+    <t>0 - learn about render as Yuting suggested
+6 - Merging branches to keep code 
+7 - Investigate why upload to google drive stoopped working
+7. Investigate using Render as a new platform to deploy</t>
+  </si>
+  <si>
+    <t>1. Investigate uploading zip file to google drive stopped working - abandon using this method
+2. Trying to switch to use Render as Yuting suggested
+3. Determined Render is not a good platform for our project
+4. Switch to Heroku</t>
+  </si>
+  <si>
+    <t>1. Learn Heroku and how the platform works</t>
+  </si>
+  <si>
+    <t>10/3-10/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - learn Heroku platform
+2 - design how to deploy to Heroku
+3 - set up the backend deployment to Heroku
+3 - set up the application container
+3 - Implement secret for deployment 
+4 - testing the deployment
+5 - work with Jisoo/mali/Sean on the front end deployment and the backend
+6 - Configuring MariaDB on Heroku
+7 - Investigate build pack issues
+7 - investigate different DB addon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Switched to deploy to Heroku as google drive failed working
+2. Set up new action to accomodate the change
+3. </t>
+  </si>
+  <si>
+    <t>1. Need to resolve the port number for backend (Heroku assigns random #) - resolved
+2. Heroku offers many ways to deploy and have to pick out the right method 
+3. git structure need to accomodate (as build pack does not work with sub folders) - resolved
+4. Mainly on debugging the deployment as Heroku throws deployment errors for the back end - resolved</t>
+  </si>
+  <si>
+    <t>1. Deploy Front End
+2. Work with Front end team to hook up bankend endpoint in production environment
+3. Work with database for changes Sean requested</t>
+  </si>
+  <si>
     <t>Mali Rivera</t>
   </si>
   <si>
@@ -577,6 +767,51 @@
 3 - implement front-end functionality  </t>
   </si>
   <si>
+    <t>Individual Task Breakdown
+0 - Learn Material UI, Chart.js, mockMVC, and mockito, learn how to integrate spring boot and react
+3- Work on Dashboard.js, NavBar.js, ExpenseChart.js and ExpenseTable.js
+4 - Write Integration tests   
+5 - help communicate how to run project locally, and access backend on front-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. write Lab 3 code  
+2. write integration tests  3. enabled CORS configuration so that front-end can access code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. not familiar with integrating back end and front end and working with local databases 
+2. not familiar with spring boot so have to research controller vs. service vs. mapper to be able to write tests </t>
+  </si>
+  <si>
+    <t>need to research more about spring boot and react integration, and also integration testing with spring mock MVC</t>
+  </si>
+  <si>
+    <t>0 - continue to work on back end and front end integration 
+1 - work on front-end implementation of user stories 
+3 - write tests</t>
+  </si>
+  <si>
+    <t>Individual Task Breakdown
+0 - learn Material UI, Chart.js, mockMVC, and mockito
+3- Integrate back and front end, add logic to create a map of user expenses by expenseCategory, pull data in front-end, check posting data updates charts in real time, add integration tests, create demo for front-end slides 
+4 - write Integration tests, write STD sections, create Testing Metrics Report, create Testing Slides for presentation 
+5 - help communicate how to run project locally, and access backend on front-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. code (Dashboard.js, ExpenseChart.js, ExpenseTable.js, NavBar.js, Integration tests) 
+2. create Testing Metrics Report, Testing slides, STD update, and script testing slides, record front-end demo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we're having issues with login functionality which affects the implementation of the rest of our program </t>
+  </si>
+  <si>
+    <t>need to figure out a login plan with the team, add date filtering capability to dashboard, edit the UI design, make sure we have all the functinoality that we wanted and continue to write tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - continue to work on back end and front end integration 
+1 - finish up front-end implementation 
+3 - continue to test, study for final </t>
+  </si>
+  <si>
     <t>Sherif Zeyada</t>
   </si>
   <si>
@@ -598,6 +833,32 @@
   </si>
   <si>
     <t>1. Wrote out high level requirements proposal for SPPP</t>
+  </si>
+  <si>
+    <t>0 - Research Google Oauth2
+2 - Plan initial Google Oauth2
+3 - Create Google confidentail
+5 - Discuss high-level architecture with team</t>
+  </si>
+  <si>
+    <t>0 - Continue learning about google authentication and spring security
+2 - Work with team to plan high level architectural design of project
+4 - Write first unit tests
+5 - Meet with Saan to discuss authentication, coordinate with team regarding iteration 1 presentation</t>
+  </si>
+  <si>
+    <t>SDD Design and database</t>
+  </si>
+  <si>
+    <t>0 - Learn about React
+2 - Design the integration between the Frontend and backend google Oauth
+4 - Continue filling out unit tests for the back end
+5 - Assist in testing communicate with team about database updates</t>
+  </si>
+  <si>
+    <t>1. Help integrate front end with back end
+2. Perform testing to ensure that authentication functionality integrates well with back end
+3</t>
   </si>
   <si>
     <r>
@@ -691,6 +952,65 @@
 6 - Ensure that we have a universal staging environment that we can all reference and see how the project is progressing </t>
   </si>
   <si>
+    <t>09/26 - 10/2</t>
+  </si>
+  <si>
+    <t>0 - Learn about postman, docker, material ui, accessing endpoints, creating local environment for development
+1 - Bi-weekly code checkins to ensure progress is being made and team members feel comfortable about their workload
+2 - Using components from MUI, designed the layout for the add-expense and add-income pages
+5 - Created outlines for each of our meetings, checked in with all team members at each meeting to see how progress is coming along, ensured that team members feel comfortable with their workload</t>
+  </si>
+  <si>
+    <t>1. Learned how to work with MUI and began creating the AddIncome and AddExpense pages</t>
+  </si>
+  <si>
+    <t>1. Overall very unsure about a lot of the programs that we're using so a bulk of time this week was spent learning how to use those and work with them efficiently</t>
+  </si>
+  <si>
+    <t>1. Continue learning about these programs and work with a couple of small examples to familiarize myself before applying that information directly to our working project</t>
+  </si>
+  <si>
+    <t>0 - continue learning about pipeline, docker, and mariaDB
+3 - create the AddIncome and AddExpense components
+5 - continue leading meetings and checking in with team members
+6 - plan to successfully set up a local environment for testing</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">0 - Continued learning Docker and MUI
+1 - Wrote </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Readme.md</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> file to outline how to use the application + Reviewed SPPP and provided comments on all features that have had progress made for this iteration
+2 - Continued designing the layout for the AddExpense and AddIncome pages
+3 - Commited AddExpense and AddIncome components to working branch
+5 - Created outlines for each meeting, checked in with team members, led meetings
+6 - Was able to successfully create a local environment</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Created the AddIncome and AddExpense components
+2. Wrote readme file and updated SPPP document to cover progress
+3 - Finished creating the AddIncome and AddExpense
+4 - Ensured that the two components were working locally
+5 - Continued leading meetings and ensuring that we had an outline to reference for meetups
+6 - Set up local environment and was able to run docker</t>
+  </si>
+  <si>
+    <t>0 - continue learning about the pipeline and Hiroku for our final iteration
+3 - Finalize the AddIncome and AddExpense to ensure it is working properly
+5 - continue leading meetings</t>
+  </si>
+  <si>
     <t>Jisoo Lee</t>
   </si>
   <si>
@@ -782,12 +1102,65 @@
 2 - Team work with front-end design
 6 - Set up VScode, React libraries</t>
   </si>
+  <si>
+    <t>0 - Continue learning Google Oauth in Javascript
+1 - Updated accepatance test for requirements and set up the timeline for our requirements
+3 - Work on the front end, user set up page 
+4 - Work on Lab3 test on Javascript code
+5 - Meet with Brian and Mali with front-end. Regular meeting with whole team to ensure design for full stack application 
+5 - Set up VScode, intall Node.js and React. Distributed pages for the frontend team.</t>
+  </si>
+  <si>
+    <t>1. Testing javascript for Lab3
+2. Install Node.js React app and created pages. 
+3. Updated Jira status</t>
+  </si>
+  <si>
+    <t>1. Installing React app and integrating with backend required a lot of communication
+2. Need to work with backend team with the Google Oauth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Continue to work on Google Oauth process in frontend </t>
+  </si>
+  <si>
+    <t>1- Update status in Jira 
+1 - Update SPPP and STD accpetance test 
+2 - Team work with front-end design 
+3 - Write code for SetUp page and Login page
+4 - communicate with backend for checking endpoints for REST APIs and work with conficurations set ups for deploying</t>
+  </si>
+  <si>
+    <t>10/03 - 10/09</t>
+  </si>
+  <si>
+    <t>0 - Continue learning Google Oauth in Javascript
+1 - Updated Jira time line 
+3 - Work on the front end, updating user set up page and Google Oauth
+4 - Testing whether it is integrated with backend.
+5 - Meet with Brian and Mali with front-end. Regular meeting with whole team to ensure design for full stack application, presentation recording for iteration2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write code for Sign-in folder (SetUp.js, Auth.js, Login.js, OauthRedirect.js, PostToken.js)
+2. Check endpoints for REST APIs with backend team and updated the codes
+3. Presentation for interation2 mock up video for frontend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Integration with backend required loads of communications for updating bugs
+2. Need to work on Google Oauth with back end team </t>
+  </si>
+  <si>
+    <t>1- Update status in Jira and check the progress
+1 - Update SPPP and STD
+2 - Team work with front-end design 
+3 - Write code for user name set ups when Google Oauth is ready
+4 - communicate with backend for checking endpoints for REST APIs and work with conficurations set ups for deploying</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -835,12 +1208,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +1232,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -874,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -950,8 +1337,14 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,7 +1604,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="12.63"/>
     <col customWidth="1" min="3" max="3" width="33.5"/>
-    <col customWidth="1" min="4" max="4" width="22.13"/>
+    <col customWidth="1" min="4" max="4" width="43.25"/>
     <col customWidth="1" min="5" max="5" width="25.75"/>
     <col customWidth="1" min="6" max="6" width="22.25"/>
     <col customWidth="1" min="7" max="7" width="9.88"/>
@@ -1439,19 +1832,35 @@
       <c r="A5" s="7">
         <v>1.0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="9">
+        <v>5.0</v>
+      </c>
       <c r="L5" s="10">
         <f t="shared" si="1"/>
-        <v>43.5</v>
+        <v>52</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="2"/>
-        <v>43.5</v>
+        <v>52</v>
       </c>
       <c r="O5" s="10">
         <f>SUM('Chaitanya Saraogi'!G5+'Sean Rawson'!G5+'Clyde Yeung'!G5+'Mali Rivera'!G5+'Sherif Zeyada'!G5+'Brian Fenstermacher'!G5+'Jisoo Lee'!G6)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P5" s="10">
         <f>SUM('Chaitanya Saraogi'!H5+'Sean Rawson'!H5+'Clyde Yeung'!H5+'Mali Rivera'!H5+'Sherif Zeyada'!H5+'Brian Fenstermacher'!H5+'Jisoo Lee'!H6)</f>
@@ -1459,11 +1868,11 @@
       </c>
       <c r="Q5" s="10">
         <f>SUM('Chaitanya Saraogi'!I5+'Sean Rawson'!I5+'Clyde Yeung'!I5+'Mali Rivera'!I5+'Sherif Zeyada'!I5+'Brian Fenstermacher'!I5+'Jisoo Lee'!I6)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="R5" s="10">
         <f>SUM('Chaitanya Saraogi'!J5+'Sean Rawson'!J5+'Clyde Yeung'!J5+'Mali Rivera'!J5+'Sherif Zeyada'!J5+'Brian Fenstermacher'!J5+'Jisoo Lee'!J6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S5" s="10">
         <f>SUM('Chaitanya Saraogi'!K5+'Sean Rawson'!K5+'Clyde Yeung'!K5+'Mali Rivera'!K5+'Sherif Zeyada'!K5+'Brian Fenstermacher'!K5+'Jisoo Lee'!K6)</f>
@@ -1471,7 +1880,7 @@
       </c>
       <c r="T5" s="10">
         <f>SUM('Chaitanya Saraogi'!L5+'Sean Rawson'!L5+'Clyde Yeung'!L5+'Mali Rivera'!L5+'Sherif Zeyada'!L5+'Brian Fenstermacher'!L5+'Jisoo Lee'!L6)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U5" s="10">
         <f>SUM('Chaitanya Saraogi'!M5+'Sean Rawson'!M5+'Clyde Yeung'!M5+'Mali Rivera'!M5+'Sherif Zeyada'!M5+'Brian Fenstermacher'!M5+'Jisoo Lee'!M6)</f>
@@ -1486,39 +1895,59 @@
       <c r="A6" s="7">
         <v>2.0</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3.0</v>
+      </c>
       <c r="L6" s="10">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>76.5</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>76.5</v>
       </c>
       <c r="O6" s="10">
         <f>SUM('Chaitanya Saraogi'!G6+'Sean Rawson'!G6+'Clyde Yeung'!G6+'Mali Rivera'!G6+'Sherif Zeyada'!G6+'Brian Fenstermacher'!G6+'Jisoo Lee'!G7)</f>
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="P6" s="10">
         <f>SUM('Chaitanya Saraogi'!H6+'Sean Rawson'!H6+'Clyde Yeung'!H6+'Mali Rivera'!H6+'Sherif Zeyada'!H6+'Brian Fenstermacher'!H6+'Jisoo Lee'!H7)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" s="10">
         <f>SUM('Chaitanya Saraogi'!I6+'Sean Rawson'!I6+'Clyde Yeung'!I6+'Mali Rivera'!I6+'Sherif Zeyada'!I6+'Brian Fenstermacher'!I6+'Jisoo Lee'!I7)</f>
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="R6" s="10">
         <f>SUM('Chaitanya Saraogi'!J6+'Sean Rawson'!J6+'Clyde Yeung'!J6+'Mali Rivera'!J6+'Sherif Zeyada'!J6+'Brian Fenstermacher'!J6+'Jisoo Lee'!J7)</f>
-        <v>20.5</v>
+        <v>26.5</v>
       </c>
       <c r="S6" s="10">
         <f>SUM('Chaitanya Saraogi'!K6+'Sean Rawson'!K6+'Clyde Yeung'!K6+'Mali Rivera'!K6+'Sherif Zeyada'!K6+'Brian Fenstermacher'!K6+'Jisoo Lee'!K7)</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="T6" s="10">
         <f>SUM('Chaitanya Saraogi'!L6+'Sean Rawson'!L6+'Clyde Yeung'!L6+'Mali Rivera'!L6+'Sherif Zeyada'!L6+'Brian Fenstermacher'!L6+'Jisoo Lee'!L7)</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="U6" s="10">
         <f>SUM('Chaitanya Saraogi'!M6+'Sean Rawson'!M6+'Clyde Yeung'!M6+'Mali Rivera'!M6+'Sherif Zeyada'!M6+'Brian Fenstermacher'!M6+'Jisoo Lee'!M7)</f>
@@ -1526,7 +1955,7 @@
       </c>
       <c r="V6" s="10">
         <f>SUM('Chaitanya Saraogi'!N6+'Sean Rawson'!N6+'Clyde Yeung'!N6+'Mali Rivera'!N6+'Sherif Zeyada'!N6+'Brian Fenstermacher'!N6+'Jisoo Lee'!N7)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -1537,47 +1966,47 @@
       <c r="C7" s="7"/>
       <c r="L7" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O7" s="10">
         <f>SUM('Chaitanya Saraogi'!G7+'Sean Rawson'!G7+'Clyde Yeung'!G7+'Mali Rivera'!G7+'Sherif Zeyada'!G7+'Brian Fenstermacher'!G7+'Jisoo Lee'!G8)</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="P7" s="10">
         <f>SUM('Chaitanya Saraogi'!H7+'Sean Rawson'!H7+'Clyde Yeung'!H7+'Mali Rivera'!H7+'Sherif Zeyada'!H7+'Brian Fenstermacher'!H7+'Jisoo Lee'!H8)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="10">
         <f>SUM('Chaitanya Saraogi'!I7+'Sean Rawson'!I7+'Clyde Yeung'!I7+'Mali Rivera'!I7+'Sherif Zeyada'!I7+'Brian Fenstermacher'!I7+'Jisoo Lee'!I8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7" s="10">
         <f>SUM('Chaitanya Saraogi'!J7+'Sean Rawson'!J7+'Clyde Yeung'!J7+'Mali Rivera'!J7+'Sherif Zeyada'!J7+'Brian Fenstermacher'!J7+'Jisoo Lee'!J8)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S7" s="10">
         <f>SUM('Chaitanya Saraogi'!K7+'Sean Rawson'!K7+'Clyde Yeung'!K7+'Mali Rivera'!K7+'Sherif Zeyada'!K7+'Brian Fenstermacher'!K7+'Jisoo Lee'!K8)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T7" s="10">
         <f>SUM('Chaitanya Saraogi'!L7+'Sean Rawson'!L7+'Clyde Yeung'!L7+'Mali Rivera'!L7+'Sherif Zeyada'!L7+'Brian Fenstermacher'!L7+'Jisoo Lee'!L8)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U7" s="10">
         <f>SUM('Chaitanya Saraogi'!M7+'Sean Rawson'!M7+'Clyde Yeung'!M7+'Mali Rivera'!M7+'Sherif Zeyada'!M7+'Brian Fenstermacher'!M7+'Jisoo Lee'!M8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="10">
         <f>SUM('Chaitanya Saraogi'!N7+'Sean Rawson'!N7+'Clyde Yeung'!N7+'Mali Rivera'!N7+'Sherif Zeyada'!N7+'Brian Fenstermacher'!N7+'Jisoo Lee'!N8)</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
@@ -2618,8 +3047,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>136</v>
+      <c r="A1" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2645,7 +3074,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -2666,22 +3095,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -2708,19 +3137,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -2735,7 +3164,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" s="21">
         <f>D4+E4</f>
@@ -2749,7 +3178,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="G4" s="24">
         <v>1.0</v>
@@ -2776,16 +3205,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="S4" s="21">
         <v>6.0</v>
@@ -2803,7 +3232,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>5.5</v>
@@ -2815,7 +3244,7 @@
         <v>1.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="G5" s="8">
         <v>1.5</v>
@@ -2842,16 +3271,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="S5" s="8">
         <v>6.0</v>
@@ -2865,7 +3294,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9">
         <v>5.5</v>
@@ -2877,7 +3306,7 @@
         <v>1.5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="G6" s="8">
         <v>1.5</v>
@@ -2904,16 +3333,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="S6" s="8">
         <v>6.0</v>
@@ -2923,36 +3352,120 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>223</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>228</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -8612,11 +9125,12 @@
     <col customWidth="1" min="3" max="3" width="15.88"/>
     <col customWidth="1" min="4" max="5" width="12.63"/>
     <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col customWidth="1" min="8" max="8" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -8646,37 +9160,37 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -9730,7 +10244,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -9756,7 +10270,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -9777,22 +10291,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -9819,19 +10333,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -9846,7 +10360,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C4" s="21">
         <f>D4+E4</f>
@@ -9860,7 +10374,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G4" s="21">
         <v>3.0</v>
@@ -9881,16 +10395,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="S4" s="21">
         <v>6.0</v>
@@ -14612,7 +15126,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -14638,7 +15152,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -14659,22 +15173,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -14701,19 +15215,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -14728,10 +15242,10 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" ref="C4:C5" si="1">D4+E4</f>
+        <f t="shared" ref="C4:C8" si="1">D4+E4</f>
         <v>4</v>
       </c>
       <c r="D4" s="21">
@@ -14742,7 +15256,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G4" s="24">
         <v>2.0</v>
@@ -14759,16 +15273,16 @@
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="S4" s="21">
         <v>6.0</v>
@@ -14782,8 +15296,11 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="9">
+        <v>2.0</v>
+      </c>
       <c r="B5" s="24" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" s="21">
         <f t="shared" si="1"/>
@@ -14796,7 +15313,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -14811,70 +15328,196 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="S5" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2.0</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="8">
+        <v>1.0</v>
+      </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="N6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -19498,7 +20141,7 @@
     <col customWidth="1" min="3" max="3" width="7.25"/>
     <col customWidth="1" min="4" max="4" width="8.38"/>
     <col customWidth="1" min="5" max="5" width="7.13"/>
-    <col customWidth="1" min="6" max="6" width="32.5"/>
+    <col customWidth="1" min="6" max="6" width="33.38"/>
     <col customWidth="1" min="7" max="7" width="5.63"/>
     <col customWidth="1" min="8" max="8" width="5.75"/>
     <col customWidth="1" min="9" max="9" width="5.88"/>
@@ -19516,7 +20159,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -19542,7 +20185,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -19563,22 +20206,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -19605,19 +20248,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -19632,13 +20275,15 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="C4" s="24">
+        <v>4.0</v>
+      </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="24" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G4" s="24">
         <v>2.0</v>
@@ -19665,16 +20310,16 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="S4" s="24">
         <v>4.0</v>
@@ -19692,10 +20337,13 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="G5" s="8">
         <v>4.0</v>
@@ -19722,16 +20370,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="S5" s="8">
         <v>8.0</v>
@@ -19745,10 +20393,13 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>108</v>
+      </c>
+      <c r="C6" s="9">
+        <v>11.5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="G6" s="8">
         <v>4.0</v>
@@ -19775,16 +20426,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="S6" s="8">
         <v>10.0</v>
@@ -19794,37 +20445,113 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="8">
+        <v>8.0</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S8" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -24466,7 +25193,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -24492,7 +25219,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -24513,22 +25240,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -24555,19 +25282,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -24582,7 +25309,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" s="24">
         <v>8.0</v>
@@ -24594,7 +25321,7 @@
         <v>4.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G4" s="24">
         <v>4.0</v>
@@ -24617,16 +25344,16 @@
         <v>1.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="S4" s="24">
         <v>12.0</v>
@@ -24644,7 +25371,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>15.0</v>
@@ -24656,7 +25383,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G5" s="8">
         <v>8.0</v>
@@ -24673,7 +25400,7 @@
         <v>3.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -24688,19 +25415,19 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9">
         <v>25.0</v>
       </c>
       <c r="D6" s="9">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="E6" s="9">
         <v>2.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="G6" s="8">
         <v>3.0</v>
@@ -24721,16 +25448,16 @@
         <v>3.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="S6" s="8">
         <v>25.0</v>
@@ -24740,42 +25467,115 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="7"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="8">
+        <v>7.0</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="L7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>10.0</v>
+      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="Q7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="8">
+        <v>30.0</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="7"/>
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="8">
+        <v>8.0</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="Q8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" s="8">
+        <v>25.0</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
+      <c r="F9" s="2"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -29412,7 +30212,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -29438,7 +30238,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -29459,22 +30259,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -29501,19 +30301,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -29528,7 +30328,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" s="24">
         <v>7.0</v>
@@ -29540,7 +30340,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="G4" s="24">
         <v>2.0</v>
@@ -29561,16 +30361,16 @@
         <v>1.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="S4" s="21">
         <v>6.0</v>
@@ -29588,7 +30388,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>7.5</v>
@@ -29600,7 +30400,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -29619,16 +30419,16 @@
         <v>2.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="S5" s="8">
         <v>6.0</v>
@@ -29637,12 +30437,12 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" ht="87.0" customHeight="1">
+    <row r="6" ht="101.25" customHeight="1">
       <c r="A6" s="9">
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9">
         <v>7.5</v>
@@ -29654,7 +30454,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="G6" s="8">
         <v>2.0</v>
@@ -29673,16 +30473,16 @@
         <v>2.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="S6" s="8">
         <v>6.0</v>
@@ -29691,38 +30491,110 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="7"/>
+    <row r="7" ht="101.25" customHeight="1">
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4.0</v>
+      </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="N7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="S7" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="7"/>
+    <row r="8" ht="133.5" customHeight="1">
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4.0</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2.0</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="N8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="S8" s="8">
+        <v>13.0</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -34364,7 +35236,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -34390,7 +35262,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -34411,22 +35283,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -34453,19 +35325,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -34480,7 +35352,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" s="21">
         <f>D4+E4</f>
@@ -34494,7 +35366,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G4" s="21">
         <v>3.0</v>
@@ -34515,16 +35387,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="S4" s="21">
         <v>6.0</v>
@@ -34538,73 +35410,225 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="A5" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="8">
+        <v>8.0</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="A6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="8">
+        <v>8.0</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="S8" s="8">
+        <v>11.0</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -39224,11 +40248,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.0"/>
-    <col customWidth="1" min="2" max="2" width="10.13"/>
-    <col customWidth="1" min="3" max="3" width="7.25"/>
-    <col customWidth="1" min="4" max="4" width="8.38"/>
+    <col customWidth="1" min="2" max="2" width="12.5"/>
+    <col customWidth="1" min="3" max="3" width="24.38"/>
+    <col customWidth="1" min="4" max="4" width="18.25"/>
     <col customWidth="1" min="5" max="5" width="7.13"/>
-    <col customWidth="1" min="6" max="6" width="63.5"/>
+    <col customWidth="1" min="6" max="6" width="66.25"/>
     <col customWidth="1" min="7" max="7" width="6.13"/>
     <col customWidth="1" min="8" max="8" width="6.0"/>
     <col customWidth="1" min="9" max="9" width="5.88"/>
@@ -39236,7 +40260,7 @@
     <col customWidth="1" min="11" max="11" width="5.75"/>
     <col customWidth="1" min="12" max="13" width="6.0"/>
     <col customWidth="1" min="14" max="14" width="5.63"/>
-    <col customWidth="1" min="15" max="15" width="24.88"/>
+    <col customWidth="1" min="15" max="15" width="55.13"/>
     <col customWidth="1" min="16" max="16" width="19.63"/>
     <col customWidth="1" min="17" max="17" width="23.5"/>
     <col customWidth="1" min="18" max="18" width="56.38"/>
@@ -39246,7 +40270,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -39272,7 +40296,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -39293,22 +40317,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -39335,19 +40359,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -39362,7 +40386,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C4" s="21">
         <f>D4+E4</f>
@@ -39376,7 +40400,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G4" s="21">
         <v>3.0</v>
@@ -39397,16 +40421,16 @@
         <v>0.5</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="S4" s="21">
         <v>6.0</v>
@@ -39424,7 +40448,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9">
         <v>6.0</v>
@@ -39436,7 +40460,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="G5" s="8">
         <v>1.5</v>
@@ -39463,16 +40487,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="S5" s="8">
         <v>5.0</v>
@@ -39486,7 +40510,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9">
         <v>7.0</v>
@@ -39498,7 +40522,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="G6" s="8">
         <v>1.5</v>
@@ -39525,16 +40549,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="S6" s="8">
         <v>6.0</v>
@@ -39544,37 +40568,109 @@
       <c r="V6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>4.0</v>
+      </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8">
+        <v>1.0</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="O7" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="S7" s="8">
+        <v>11.0</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="A8" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1.0</v>
+      </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="R8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="S8" s="8">
+        <v>11.5</v>
+      </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -44179,6 +45275,9 @@
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F8"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/CS673_ProgressReport_team1.xlsx
+++ b/doc/CS673_ProgressReport_team1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="316">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -165,6 +165,26 @@
 - Finalize the notification feature that will monitor expense categories and alert users when a category has exceeded a determined limit</t>
   </si>
   <si>
+    <t>10/11 - 10/17</t>
+  </si>
+  <si>
+    <t>- Continued with troubleshooting endpoints to work with frontend
+- Created and implemented budgeting feature
+- Deployed front end to Heroku
+- Added additional expense tracking visualization components
+- Ensured that the front end components were connecting to Heroku
+- Ensured that Google Oauth Login worked and created a user
+- Tested API calls and functionality throughout the above process</t>
+  </si>
+  <si>
+    <t>- With the new deployment of Heroku on the front end the team ran into a number of CORS errors in different parts of the code that had to be addressed
+- The team ran into a number of issues with utilizing Oauth and simultaneously creating a user that could be used to access the database and have the ability to addIncomes and addExpenses
+- We incorporated another feature in this iteration that allowed the user to receive notifications if their budget was exceeded or if an expense kept them under their budget, this new addition created a few issues with creating a user that the team had to work through</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
 the group project in each category in the whole semester.</t>
   </si>
@@ -200,6 +220,217 @@
   </si>
   <si>
     <t>Other Comments</t>
+  </si>
+  <si>
+    <t>Sean Rawson</t>
+  </si>
+  <si>
+    <t>Security/non-functional requirements
+Filled out SPPP risk management spreadsheet for each iteration</t>
+  </si>
+  <si>
+    <t>User stories for expense visualizations and filtering information by date/time</t>
+  </si>
+  <si>
+    <t>Initial completion of software architecture section for SDD.
+Updated class diagram and database design for final SDD</t>
+  </si>
+  <si>
+    <t>Iteration 1</t>
+  </si>
+  <si>
+    <t>Back end code for controllers, services, DTOs, entities, and mappers</t>
+  </si>
+  <si>
+    <t>Unit tests for controllers, services, DTOs, entities, and mappers. Manual testing of API endpoints to resolve back end and front end integration issues.</t>
+  </si>
+  <si>
+    <t>Weekly meetings with team. Communicating about contract updates and additions for the API endpoints. Helped team members with Spring Boot and testing.</t>
+  </si>
+  <si>
+    <t>Mali Rivera</t>
+  </si>
+  <si>
+    <t>QA Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User stories/acceptance tests for custom expense chart, expense categorization and tracking, </t>
+  </si>
+  <si>
+    <t>STD document, Testing Report for Automated and Manual Testing</t>
+  </si>
+  <si>
+    <t>Participated in Iteration 1 and Iteration 3</t>
+  </si>
+  <si>
+    <t>Dashboard.js, ExpenseChart.js, ExpensePlot.js, ExpenseTable.js, Header.js, IncomeReport.js, NavBar.js, Integration tests in back-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration tests for controller classes. Manual testing of API endpoints with Postman and UI, testing documentation </t>
+  </si>
+  <si>
+    <t>Helped Clyde trouble-shoot back-end and front-end integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actively participated in Discord communication, weekly meetings in discord, and frontend team meeting (Jisoo, Brian). helped front-end team set up local db and debug coding issues </t>
+  </si>
+  <si>
+    <t>Jisoo Lee</t>
+  </si>
+  <si>
+    <t>Functional Requirements, Objectives and priorities, Use case diagram</t>
+  </si>
+  <si>
+    <t>Jira updates, user stories, acceptance test, closed Sprint by iterations, Finalized the core requirement report</t>
+  </si>
+  <si>
+    <t>Introduction, add Front-End Component Hierarchy</t>
+  </si>
+  <si>
+    <t>Helped with manual testing in API calls</t>
+  </si>
+  <si>
+    <t>Participated in iteration0, iteration2, and iteration3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login.js, PostToken.js, OauthRedirect.js, SetUp.js, Auth.js, SetBudget.js </t>
+  </si>
+  <si>
+    <t>Helped Clyde with error handling when frontend deployment in Heroku</t>
+  </si>
+  <si>
+    <t>Actively participated in Discord communication, weekly meetings in discord, and frontend team meeting (Mali, Brian)</t>
+  </si>
+  <si>
+    <t>Brian Fenstermacher</t>
+  </si>
+  <si>
+    <t>Overview,
+Related Work,
+Update progress on requirements</t>
+  </si>
+  <si>
+    <t>Jira updates, 
+User stories,
+Acceptance Tests</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Local testing some API calls with Postman</t>
+  </si>
+  <si>
+    <t>Participated in iteration0</t>
+  </si>
+  <si>
+    <t>AddExpense.js, AddIncome.js, ReadMe.md</t>
+  </si>
+  <si>
+    <t>Created outlines for weekly meetups, Active participation in Discord communication, Reached out to professor for team related questions,  and frontend team meeting (Mali, Jisoo)</t>
+  </si>
+  <si>
+    <t>Chaitanya Saraogi</t>
+  </si>
+  <si>
+    <t>Requirement analysis, 
+Updated feature Jira reports</t>
+  </si>
+  <si>
+    <t>Created user stories, 
+acceptance tests, 
+updated Jira</t>
+  </si>
+  <si>
+    <t>Business logic ; class diagram - design patterns</t>
+  </si>
+  <si>
+    <t>Unit testing for Budget notification 
+- 5 tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participated
+ in iteration 1 and 3.
+Created presentation for 1 and 3 </t>
+  </si>
+  <si>
+    <t>Expensecontroller, expensedto, user dto etc.
+Create budget notification</t>
+  </si>
+  <si>
+    <t>created 5 unit test for Budget notifications</t>
+  </si>
+  <si>
+    <t>Participated in weekly meetings, discord. 
+Held code reviews with the
+ backend team in iteration 2 and 3</t>
+  </si>
+  <si>
+    <t>Clyde Yeung</t>
+  </si>
+  <si>
+    <t>Configuration and Deployment. 
+Manual Testing</t>
+  </si>
+  <si>
+    <t>Configure Jira. Created initial features and stories</t>
+  </si>
+  <si>
+    <t>Deployment strategy</t>
+  </si>
+  <si>
+    <t>Manual Testing in API calls, Database and UI testing</t>
+  </si>
+  <si>
+    <t>Participated in iteration 0, 2, 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">All the dockerfile. 
+docker-compose
+Create_db.sql
+Github Workflow
+Merge code and sync with different branches
+Resolve conflicts
+Final </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>ReadMe.md</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial configuration of Jira, Github, Google Drive
+Original self deployment of docker containers with docker-compose (Google drive failed after a few days and abandoned, switched ot Heroku)
+Configure Heroku, created dynos. Integrate Github actions to deploy all 4 components to Heroku
+</t>
+  </si>
+  <si>
+    <t>Actively participated in Discord. Coordinates with all team members and keeping tap with the progress and features. 
+Helping teammates to seek help and unlock obstacles
+Active member to talk to individual member to understand each part of the project.
+Review code and resolve code conflict for merging.
+Raised concern and keep track of our schedule
+Manul testing and work with team members to help debug</t>
+  </si>
+  <si>
+    <t>Sherif Zeyada</t>
+  </si>
+  <si>
+    <t>Functional Requirements and non-functional requirements</t>
+  </si>
+  <si>
+    <t>Class Daigram and database diagram</t>
+  </si>
+  <si>
+    <t>Participated in iteration2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add Google Oauth2 Authontications </t>
   </si>
   <si>
     <t>The sheet shows an example of  a student weekly report.  Only include the time that you use to work on the project. 
@@ -402,7 +633,26 @@
     <t>finish testing. see if team wants to add budgeting option by category</t>
   </si>
   <si>
-    <t>Sean Rawson</t>
+    <t>10/11- 10/17</t>
+  </si>
+  <si>
+    <t>0 - learn unit testing
+1 - Update Jira for requirements
+4- completed testing of the budget notification system
+5 - communication with team and meetings; up the timeline for our requirements
+7 - Updated documentation - SDD, STD, SPP, Presentation</t>
+  </si>
+  <si>
+    <t>Budget notification system and testing completed. Updated final presentation. Updated Jira. Updated SDD with Business logic for the notification system. Updated the STD with 5 unit tests for the notification system. Updated SPP with requirements report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backend code was completed but due to time constraint front end integration was not completed </t>
+  </si>
+  <si>
+    <t>Front end is working on trying to add notifciation</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <r>
@@ -529,6 +779,33 @@
     <t>1. Help integrate front end with back end
 2. Perform testing to ensure that authentication functionality integrates well with back end
 3. Add expense category budgeting options to back end</t>
+  </si>
+  <si>
+    <t>10/10 - 10/16</t>
+  </si>
+  <si>
+    <t>0 - Return to spring oauth learning and research spring cloud gateway for potential login solution
+3 - Implement budget setting endpoint to support budget notifications when adding expenses
+4 - Test backend endpoints for integration with frontend, debug database schema issues
+5 - Communicate with team about any final backend endpoint updates</t>
+  </si>
+  <si>
+    <t>Updated SPPP risk management spreadsheet
+Updated class diagram and database diagram in the SDD</t>
+  </si>
+  <si>
+    <t>1. I put "no issues" last week when there were clearly many.
+2. Had to research other login options for quite a while at the last minute.</t>
+  </si>
+  <si>
+    <t>1. Remaining time will be spent on documentation for the most part. There are a lot of components that need to be cleaned up.
+2. Auth solution was eventually delivered by team member. Testing will be impacted</t>
+  </si>
+  <si>
+    <t>Final exam</t>
+  </si>
+  <si>
+    <t>Studying for final. 10 hours</t>
   </si>
   <si>
     <r>
@@ -676,7 +953,31 @@
 3. Work with database for changes Sean requested</t>
   </si>
   <si>
-    <t>Mali Rivera</t>
+    <t>10/10-10/17</t>
+  </si>
+  <si>
+    <t>0 - learn our react app and how to deploy react app on Heroku
+1 - 
+3 - deploy the react app to Heroku
+3 - deploy the oauth app to Heroku
+3 - fix database issues
+4 - test the applicaiton
+4 - test the database
+5 - Documentation and prep for presentation
+6 - worked with Jisoo with deployment set ups for frontend
+6 - worked with Sherif with the oauth deployment</t>
+  </si>
+  <si>
+    <t>1. Implemented logic to deploy frontend to Heroku.
+2. Implement logic to deploy oauth to Heroku
+3. Testing app after deployment.
+4. Work with the team to help fixes issues. on database side</t>
+  </si>
+  <si>
+    <t>1. Need to understand how React app work and how it could be deploy to Heroku as a container using github action
+2. OAuth is relatively easy this time as we already did a spring app. 
+3. Trying to fix all the conflict while merging code
+4. Manual test the app and find issue, and work with the team to fix the bugs.</t>
   </si>
   <si>
     <r>
@@ -812,7 +1113,27 @@
 3 - continue to test, study for final </t>
   </si>
   <si>
-    <t>Sherif Zeyada</t>
+    <t>10/10-10/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual Task Breakdown
+0 - learn oauth back-end front-end integration 
+3- add expense over time chart, add income report for use, fix addCategories on addExpense page, add budgeting notificaiton on UI, debug errors with back-end endpoints, help debug oauth authentication issue, re-structure dashboard so that addIncome and addExpense can receive data from dashboard
+4 - update Integration tests, update STD sections, udpate Testing Report, create Testing Slides for presentation, document Manual tests
+5 - help debug login and budgeting boolean with back-end and front-end, mainly with Jisoo and Sean </t>
+  </si>
+  <si>
+    <t>1. code (Dashboard.js, ExpenseChart.js, ExpenseTable.js, NavBar.js, Integration tests, IcomeReport, Header.js, ExpensePlot.js) I added code to AddExpense.js to getCategories and added a GET mapping to expenseCategory controller to get categories on the front-end. 
+2. create Testing Report, Testing slides, STD update, recorded front-end demo. documented manual tests in Testing Report and STD</t>
+  </si>
+  <si>
+    <t>issues with oauth implementation and budget boolean in the back-end code. this caused front-end to spend a lot of time manual testing and debugging and last minute implementing login redirect and budget boolean functionality in UI. has been difficult to dedicate time to testing and documenting testing when needed to implement front-end code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORs error on /setUserBudget endpoint, team has to decide whether or not to drop this feature due to timeframe. lots of documentation needed. testing report and manual testing need to be completed while code is sill being worked on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Exam </t>
   </si>
   <si>
     <r>
@@ -859,6 +1180,19 @@
     <t>1. Help integrate front end with back end
 2. Perform testing to ensure that authentication functionality integrates well with back end
 3</t>
+  </si>
+  <si>
+    <t>10/10 - 10/18</t>
+  </si>
+  <si>
+    <t>0 - Update the Oauth2 Googl login
+1 - Integrate Oauth2 with frontend
+2 - Testing with backend Jisoo with Google Oauth
+3 - meet 1:1 with with Jisoo, Mali, Sean with backend integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.write a code for Oauth2 login for integration with front end. Tested back and front  with Jisoo trying to integrate.
+2.Testing after deployment </t>
   </si>
   <si>
     <r>
@@ -912,9 +1246,6 @@
 end team, myself included, better
 understand REACT's relation to
 Java</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>0 - continue familiarization with REACT, create practice project on local machine to better familiarize with what we're working on
@@ -1011,7 +1342,24 @@
 5 - continue leading meetings</t>
   </si>
   <si>
-    <t>Jisoo Lee</t>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">0 - Continued learning about Docker, MUI and Postman for testing
+1 - Created final iteration slide deck (first draft), reviewed code commit guidelines, reviewed Progress Report to ensure all totals are adding up correctly, revisited </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Readme.md</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> file
+2 - Worked on addCategory component and made revisions to AddExpense component
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1155,12 +1503,35 @@
 3 - Write code for user name set ups when Google Oauth is ready
 4 - communicate with backend for checking endpoints for REST APIs and work with conficurations set ups for deploying</t>
   </si>
+  <si>
+    <t>0 - Searched on documentation about handling error for Cors issues
+1 - Upated Jira time line and progress update (added Sprint)
+3 - Working on pages in Sign-in folder. setup page, SetBudget page and sign up page, Log-in system with Google
+4 - Testing with backend Sherif with Google Oauth
+5 - meet with frontend team, meet 1:1 with Sherif, Sean with backend integration
+6 - worked with Clyde with deployment set ups for frontend, changing variables
+7 - worked on Use case diagram and Jira timeline update for iteration3 presentation, updated SPPP.</t>
+  </si>
+  <si>
+    <t>1.write code for signup.js and SetBudget, updated Login,js. Tested back and forth with Sherif trying to integrate with backend.
+2.Testing after deployment and changed the variables for frontend
+3. Created User case diagram and Jira update for iteration3 presentation</t>
+  </si>
+  <si>
+    <t>1. Backend security set up was still going on until Oct 15 night, to set up login in frontend was dependent to the backend.
+2. Deployment need updates on codes
+3. Due to multiple backend components, it delayed until last day for frontend to integrate (Need debugging for backend as well, so it was dependent to backend)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue has been resolve on Oct 17.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1212,11 +1583,15 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1261,7 +1636,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1312,6 +1687,15 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1337,14 +1721,17 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1909,7 +2296,7 @@
         <v>38</v>
       </c>
       <c r="G6" s="9">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="H6" s="9">
         <v>4.0</v>
@@ -1962,8 +2349,27 @@
       <c r="A7" s="7">
         <v>3.0</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="J7" s="9">
+        <v>6.0</v>
+      </c>
       <c r="L7" s="10">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3047,70 +3453,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -3137,19 +3543,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -3160,91 +3566,93 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>1.0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="24">
         <f>D4+E4</f>
         <v>6.5</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="24">
         <f>sum(G4:N4)</f>
         <v>4.5</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="27">
         <v>2.0</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="27">
         <v>1.0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="27">
         <v>1.5</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="27">
         <v>0.0</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="27">
         <v>0.0</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="27">
         <v>0.0</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="27">
         <v>1.0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="27">
         <v>0.5</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="27">
         <v>0.5</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="O4" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="S4" s="24">
         <v>6.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C5" s="9">
+        <f t="shared" ref="C5:C9" si="1">SUM(D5:E5)</f>
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D9" si="2">SUM(G5:N5)</f>
         <v>5.5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4.0</v>
       </c>
       <c r="E5" s="9">
         <v>1.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>209</v>
+        <v>292</v>
       </c>
       <c r="G5" s="8">
         <v>1.5</v>
@@ -3271,16 +3679,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="S5" s="8">
         <v>6.0</v>
@@ -3294,19 +3702,21 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
         <v>5.5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>4.0</v>
       </c>
       <c r="E6" s="9">
         <v>1.5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c r="G6" s="8">
         <v>1.5</v>
@@ -3333,16 +3743,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>216</v>
+        <v>299</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>218</v>
+        <v>301</v>
       </c>
       <c r="S6" s="8">
         <v>6.0</v>
@@ -3356,19 +3766,21 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="C7" s="9">
+        <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
       <c r="D7" s="9">
-        <v>8.0</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="E7" s="9">
         <v>1.5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="G7" s="8">
         <v>1.5</v>
@@ -3395,16 +3807,16 @@
         <v>0.0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>223</v>
+        <v>305</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>306</v>
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -3416,19 +3828,21 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="C8" s="9">
-        <v>13.5</v>
+        <f t="shared" si="1"/>
+        <v>14.5</v>
       </c>
       <c r="D8" s="9">
-        <v>9.0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="E8" s="9">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="G8" s="8">
         <v>1.5</v>
@@ -3455,16 +3869,16 @@
         <v>0.0</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>227</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>228</v>
+        <v>305</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>311</v>
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -3472,19 +3886,65 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="A9" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -9123,14 +9583,17 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="12.63"/>
     <col customWidth="1" min="3" max="3" width="15.88"/>
-    <col customWidth="1" min="4" max="5" width="12.63"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
-    <col customWidth="1" min="8" max="8" width="14.25"/>
+    <col customWidth="1" min="4" max="4" width="19.75"/>
+    <col customWidth="1" min="5" max="5" width="16.88"/>
+    <col customWidth="1" min="6" max="6" width="14.13"/>
+    <col customWidth="1" min="7" max="8" width="24.0"/>
+    <col customWidth="1" min="9" max="9" width="21.25"/>
+    <col customWidth="1" min="10" max="10" width="26.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -9160,37 +9623,37 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -9208,13 +9671,214 @@
       <c r="Y2" s="17"/>
       <c r="Z2" s="17"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" ht="72.0" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" ht="46.5" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -10207,7 +10871,10 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="G8"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10243,70 +10910,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -10333,19 +11000,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -10356,66 +11023,66 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>1.0</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="21">
+      <c r="B4" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="24">
         <f>D4+E4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="24">
         <f>sum(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="24">
         <v>1.0</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="F4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="24">
         <v>3.0</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="24">
         <v>1.0</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24">
         <v>0.5</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="24">
         <v>1.0</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="24">
         <v>0.5</v>
       </c>
-      <c r="O4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="O4" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="24">
         <v>6.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="G5" s="7"/>
@@ -15125,70 +15792,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -15215,19 +15882,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -15238,82 +15905,83 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>1.0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="21">
-        <f t="shared" ref="C4:C8" si="1">D4+E4</f>
+      <c r="B4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="24">
+        <f t="shared" ref="C4:C9" si="1">D4+E4</f>
         <v>4</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="24">
         <f>sum(G4:N4)</f>
         <v>4</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="27">
         <v>0.0</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="27">
         <v>2.0</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="24">
+      <c r="H4" s="27"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="27">
         <v>1.0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="27">
         <v>1.0</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="N4" s="24"/>
+      <c r="O4" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="S4" s="24">
         <v>6.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>2.0</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="24">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D5" s="9">
-        <v>5.0</v>
+        <f t="shared" ref="D5:D7" si="2">SUM(G5:N5)</f>
+        <v>5</v>
       </c>
       <c r="E5" s="9">
         <v>1.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -15328,13 +15996,13 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="8" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="R5" s="7"/>
       <c r="S5" s="8">
@@ -15349,20 +16017,21 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="21">
+        <v>141</v>
+      </c>
+      <c r="C6" s="24">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D6" s="9">
-        <v>9.0</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="E6" s="9">
         <v>2.0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="G6" s="8">
         <v>3.0</v>
@@ -15383,16 +16052,16 @@
         <v>2.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="S6" s="8">
         <v>10.0</v>
@@ -15406,20 +16075,21 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="21">
+        <v>146</v>
+      </c>
+      <c r="C7" s="24">
         <f t="shared" si="1"/>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="D7" s="9">
-        <v>8.0</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="E7" s="9">
         <v>2.5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="G7" s="8">
         <v>2.0</v>
@@ -15444,16 +16114,16 @@
         <v>0.5</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="S7" s="8">
         <v>10.0</v>
@@ -15464,9 +16134,9 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="21">
+        <v>152</v>
+      </c>
+      <c r="C8" s="24">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
@@ -15477,7 +16147,7 @@
         <v>2.5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="G8" s="8">
         <v>2.0</v>
@@ -15504,16 +16174,16 @@
         <v>0.5</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="S8" s="8">
         <v>10.0</v>
@@ -15523,19 +16193,62 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="B9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="9">
+        <f>SUM(G9:N9)</f>
+        <v>16</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -20153,75 +20866,75 @@
     <col customWidth="1" min="16" max="16" width="19.63"/>
     <col customWidth="1" min="17" max="17" width="23.5"/>
     <col customWidth="1" min="18" max="18" width="17.63"/>
-    <col customWidth="1" min="19" max="19" width="6.25"/>
+    <col customWidth="1" min="19" max="19" width="8.88"/>
     <col customWidth="1" min="20" max="22" width="10.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -20248,19 +20961,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -20271,79 +20984,93 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24">
+      <c r="A4" s="27">
         <v>1.0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="B4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" ref="C4:C9" si="1">SUM(D4:E4)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:D9" si="2">SUM(G4:N4)</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="27">
         <v>2.0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="F4" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="H4" s="27">
         <v>0.5</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="27">
         <v>0.0</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="27">
         <v>0.0</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="27">
         <v>0.0</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="27">
         <v>1.0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="27">
         <v>0.5</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="27">
         <v>0.0</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="24">
+      <c r="O4" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4" s="27">
         <v>4.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
+      <c r="E5" s="9">
+        <v>2.0</v>
+      </c>
       <c r="F5" s="8" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="G5" s="8">
         <v>4.0</v>
@@ -20370,16 +21097,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="S5" s="8">
         <v>8.0</v>
@@ -20393,13 +21120,21 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
+      <c r="E6" s="9">
+        <v>2.0</v>
+      </c>
       <c r="F6" s="8" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="G6" s="8">
         <v>4.0</v>
@@ -20426,16 +21161,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="S6" s="8">
         <v>10.0</v>
@@ -20449,13 +21184,21 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="C7" s="9">
-        <v>10.0</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G7" s="8">
         <v>0.0</v>
@@ -20482,16 +21225,16 @@
         <v>0.0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="S7" s="8">
         <v>8.0</v>
@@ -20505,13 +21248,21 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9">
-        <v>12.0</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="G8" s="8">
         <v>1.0</v>
@@ -20538,16 +21289,16 @@
         <v>0.0</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="S8" s="8">
         <v>10.0</v>
@@ -20557,19 +21308,65 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="A9" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -25192,70 +25989,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -25282,19 +26079,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -25305,85 +26102,89 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>1.0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="D4" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="B4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" ref="C4:C9" si="1">SUM(D4:E4)</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="27">
+        <f t="shared" ref="D4:D9" si="2">SUM(G4:N4)</f>
+        <v>16</v>
+      </c>
+      <c r="E4" s="27">
         <v>4.0</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="27">
         <v>4.0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="27">
         <v>2.0</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="27">
         <v>2.0</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="24">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="27">
         <v>3.0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="27">
         <v>4.0</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="27">
         <v>1.0</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="S4" s="24">
+      <c r="O4" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="27">
         <v>12.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C5" s="9">
-        <v>15.0</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="D5" s="9">
-        <v>15.0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="E5" s="9">
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="G5" s="8">
         <v>8.0</v>
@@ -25400,7 +26201,7 @@
         <v>3.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -25415,19 +26216,21 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C6" s="9">
-        <v>25.0</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="D6" s="9">
-        <v>23.0</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="E6" s="9">
         <v>2.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="G6" s="8">
         <v>3.0</v>
@@ -25448,16 +26251,16 @@
         <v>3.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="S6" s="8">
         <v>25.0</v>
@@ -25471,19 +26274,21 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C7" s="9">
-        <v>20.0</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="D7" s="9">
-        <v>18.0</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E7" s="9">
         <v>2.0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="G7" s="8">
         <v>7.0</v>
@@ -25504,10 +26309,10 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="8" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="S7" s="8">
         <v>30.0</v>
@@ -25521,19 +26326,21 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="C8" s="9">
-        <v>30.0</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="D8" s="9">
-        <v>27.0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="E8" s="9">
         <v>3.0</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="G8" s="8">
         <v>8.0</v>
@@ -25558,14 +26365,14 @@
         <v>4.0</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="8" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="S8" s="8">
         <v>25.0</v>
@@ -25575,20 +26382,55 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="F9" s="2"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5.0</v>
+      </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>4.0</v>
+      </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="8" t="s">
+        <v>219</v>
+      </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="8" t="s">
+        <v>220</v>
+      </c>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="S9" s="8">
+        <v>25.0</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -30211,70 +31053,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -30301,19 +31143,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -30324,83 +31166,85 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>1.0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="24">
+      <c r="B4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="27">
         <v>7.0</v>
       </c>
-      <c r="D4" s="24">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="D4" s="27">
+        <f t="shared" ref="D4:D9" si="1">SUM(G4:N4)</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="27">
         <v>2.0</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="24">
+      <c r="F4" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="27">
         <v>2.0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="27">
         <v>0.5</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="24">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="27">
         <v>1.0</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="27">
         <v>0.5</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="27">
         <v>1.0</v>
       </c>
-      <c r="O4" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="O4" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="S4" s="24">
         <v>6.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="89.25" customHeight="1">
       <c r="A5" s="9">
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C5" s="9">
         <v>7.5</v>
       </c>
       <c r="D5" s="9">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="E5" s="9">
         <v>2.0</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>151</v>
+      <c r="F5" s="30" t="s">
+        <v>227</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -30419,16 +31263,16 @@
         <v>2.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="S5" s="8">
         <v>6.0</v>
@@ -30442,19 +31286,20 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C6" s="9">
         <v>7.5</v>
       </c>
       <c r="D6" s="9">
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="E6" s="9">
         <v>2.0</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>156</v>
+      <c r="F6" s="30" t="s">
+        <v>232</v>
       </c>
       <c r="G6" s="8">
         <v>2.0</v>
@@ -30473,16 +31318,16 @@
         <v>2.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="S6" s="8">
         <v>6.0</v>
@@ -30496,19 +31341,20 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="C7" s="9">
         <v>12.0</v>
       </c>
       <c r="D7" s="9">
-        <v>10.0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="E7" s="9">
         <v>2.0</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>161</v>
+      <c r="F7" s="30" t="s">
+        <v>237</v>
       </c>
       <c r="G7" s="8">
         <v>4.0</v>
@@ -30526,17 +31372,17 @@
       <c r="N7" s="8">
         <v>1.0</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>162</v>
+      <c r="O7" s="30" t="s">
+        <v>238</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="S7" s="8">
         <v>10.0</v>
@@ -30550,19 +31396,20 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="C8" s="9">
         <v>14.0</v>
       </c>
       <c r="D8" s="9">
-        <v>12.0</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="E8" s="9">
         <v>2.0</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>166</v>
+      <c r="F8" s="30" t="s">
+        <v>242</v>
       </c>
       <c r="G8" s="8">
         <v>4.0</v>
@@ -30580,17 +31427,17 @@
       <c r="N8" s="8">
         <v>1.0</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>167</v>
+      <c r="O8" s="30" t="s">
+        <v>243</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="S8" s="8">
         <v>13.0</v>
@@ -30599,20 +31446,59 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="7"/>
+    <row r="9" ht="192.75" customHeight="1">
+      <c r="A9" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3.0</v>
+      </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.0</v>
+      </c>
       <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="O9" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -35235,70 +36121,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -35325,19 +36211,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -35348,79 +36234,87 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>1.0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="21">
-        <f>D4+E4</f>
-        <v>7</v>
-      </c>
-      <c r="D4" s="21">
-        <f>sum(G4:N4)</f>
+      <c r="B4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="24">
+        <f t="shared" ref="C4:C9" si="1">SUM(D4:E4)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:D9" si="2">SUM(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="H4" s="24">
         <v>1.0</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="24">
         <v>1.0</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21">
+      <c r="N4" s="24">
         <v>0.5</v>
       </c>
-      <c r="M4" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="O4" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="24">
         <v>6.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C5" s="9">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
+      <c r="E5" s="9">
+        <v>2.0</v>
+      </c>
       <c r="F5" s="8" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="G5" s="8">
         <v>4.0</v>
@@ -35447,16 +36341,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="S5" s="8">
         <v>8.0</v>
@@ -35470,13 +36364,21 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C6" s="9">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
+      <c r="E6" s="9">
+        <v>2.0</v>
+      </c>
       <c r="F6" s="8" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="G6" s="8">
         <v>4.0</v>
@@ -35503,16 +36405,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="S6" s="8">
         <v>10.0</v>
@@ -35526,13 +36428,21 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="C7" s="9">
-        <v>10.0</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G7" s="8">
         <v>0.0</v>
@@ -35559,16 +36469,16 @@
         <v>0.0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="S7" s="8">
         <v>8.0</v>
@@ -35582,13 +36492,21 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9">
-        <v>12.0</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="G8" s="8">
         <v>1.0</v>
@@ -35615,16 +36533,16 @@
         <v>0.0</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="S8" s="8">
         <v>11.0</v>
@@ -35634,17 +36552,59 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="A9" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -40269,70 +41229,70 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
     </row>
     <row r="2" ht="39.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -40359,19 +41319,19 @@
         <v>23</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -40382,85 +41342,93 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21">
+      <c r="A4" s="24">
         <v>1.0</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="21">
-        <f>D4+E4</f>
-        <v>7</v>
-      </c>
-      <c r="D4" s="21">
-        <f>sum(G4:N4)</f>
+      <c r="B4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="24">
+        <f t="shared" ref="C4:C9" si="1">SUM(D4:E4)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:D9" si="2">SUM(G4:N4)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="H4" s="24">
         <v>1.0</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="I4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="24">
         <v>1.0</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21">
+      <c r="N4" s="24">
         <v>0.5</v>
       </c>
-      <c r="M4" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="P4" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="S4" s="21">
+      <c r="O4" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="S4" s="24">
         <v>6.0</v>
       </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="9">
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="C5" s="9">
-        <v>6.0</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="D5" s="9">
-        <v>4.0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="E5" s="9">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="G5" s="8">
         <v>1.5</v>
@@ -40487,16 +41455,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="S5" s="8">
         <v>5.0</v>
@@ -40510,19 +41478,21 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C6" s="9">
-        <v>7.0</v>
+        <f t="shared" si="1"/>
+        <v>6.5</v>
       </c>
       <c r="D6" s="9">
-        <v>5.0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="E6" s="9">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
       <c r="G6" s="8">
         <v>1.5</v>
@@ -40549,16 +41519,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="S6" s="8">
         <v>6.0</v>
@@ -40572,19 +41542,21 @@
         <v>4.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="C7" s="9">
-        <v>11.0</v>
+        <f t="shared" si="1"/>
+        <v>9.5</v>
       </c>
       <c r="D7" s="9">
-        <v>8.0</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="E7" s="9">
-        <v>3.0</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="G7" s="8">
         <v>2.0</v>
@@ -40595,24 +41567,32 @@
       <c r="I7" s="8">
         <v>4.0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.0</v>
+      </c>
       <c r="L7" s="8">
         <v>1.0</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="M7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.0</v>
+      </c>
       <c r="O7" s="8" t="s">
-        <v>195</v>
+        <v>278</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="S7" s="8">
         <v>11.0</v>
@@ -40626,19 +41606,21 @@
         <v>5.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C8" s="9">
-        <v>14.5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="D8" s="9">
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="E8" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>199</v>
+        <v>2.5</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="G8" s="8">
         <v>2.0</v>
@@ -40652,21 +41634,25 @@
       <c r="J8" s="8">
         <v>0.5</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8">
+        <v>0.0</v>
+      </c>
       <c r="L8" s="8">
         <v>1.0</v>
       </c>
       <c r="M8" s="8">
         <v>1.0</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="8">
+        <v>0.0</v>
+      </c>
       <c r="O8" s="8" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="8" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="S8" s="8">
         <v>11.5</v>
@@ -40676,14 +41662,50 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.0</v>
+      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -45277,7 +46299,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F8"/>
+    <hyperlink r:id="rId2" ref="F9"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>